--- a/BalanceSheet/PTC_bal.xlsx
+++ b/BalanceSheet/PTC_bal.xlsx
@@ -1708,16 +1708,16 @@
         <v>-13277000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12381000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-9390000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-7938000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>24152000.0</v>
+        <v>34000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>42452000.0</v>
@@ -3141,7 +3141,7 @@
         <v>-175000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-24641000.0</v>
+        <v>-179000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>-180000000.0</v>
@@ -4682,7 +4682,7 @@
         <v>993000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1083000000.0</v>
+        <v>892068000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>371664000.0</v>
@@ -4809,7 +4809,7 @@
         <v>1855000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1350000000.0</v>
+        <v>1158345000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>669134000.0</v>
